--- a/team_specific_matrix/Tulane_B.xlsx
+++ b/team_specific_matrix/Tulane_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1942148760330578</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="C2">
-        <v>0.5661157024793388</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01239669421487603</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.140495867768595</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08677685950413223</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03496503496503497</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="C3">
-        <v>0.04195804195804196</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02097902097902098</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6923076923076923</v>
+        <v>0.7088607594936709</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2097902097902098</v>
+        <v>0.2025316455696203</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5483870967741935</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4193548387096774</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03184713375796178</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006369426751592357</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01910828025477707</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2611464968152866</v>
+        <v>0.2707182320441989</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01910828025477707</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1847133757961783</v>
+        <v>0.1767955801104972</v>
       </c>
       <c r="R6">
-        <v>0.1210191082802548</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="S6">
-        <v>0.356687898089172</v>
+        <v>0.3535911602209945</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1168224299065421</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009345794392523364</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="E7">
-        <v>0.004672897196261682</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="F7">
-        <v>0.03738317757009346</v>
+        <v>0.04724409448818898</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1682242990654206</v>
+        <v>0.1614173228346457</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01869158878504673</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1401869158878505</v>
+        <v>0.1535433070866142</v>
       </c>
       <c r="R7">
-        <v>0.06542056074766354</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="S7">
-        <v>0.4392523364485981</v>
+        <v>0.4330708661417323</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09495548961424333</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005934718100890208</v>
+        <v>0.009732360097323601</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05341246290801187</v>
+        <v>0.0462287104622871</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1186943620178042</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02670623145400593</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1454005934718101</v>
+        <v>0.1508515815085158</v>
       </c>
       <c r="R8">
-        <v>0.1186943620178042</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="S8">
-        <v>0.4362017804154303</v>
+        <v>0.4501216545012166</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1176470588235294</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0130718954248366</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="E9">
-        <v>0.006535947712418301</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="F9">
-        <v>0.0392156862745098</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1176470588235294</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0457516339869281</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1568627450980392</v>
+        <v>0.1491712707182321</v>
       </c>
       <c r="R9">
-        <v>0.130718954248366</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="S9">
-        <v>0.3725490196078431</v>
+        <v>0.4088397790055249</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1084577114427861</v>
+        <v>0.1081307627829002</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02587064676616915</v>
+        <v>0.02598491198658843</v>
       </c>
       <c r="E10">
-        <v>0.0009950248756218905</v>
+        <v>0.0008382229673093043</v>
       </c>
       <c r="F10">
-        <v>0.07164179104477612</v>
+        <v>0.06789606035205364</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1472636815920398</v>
+        <v>0.1458507963118189</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009950248756218905</v>
+        <v>0.01005867560771165</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2029850746268657</v>
+        <v>0.1978206202849958</v>
       </c>
       <c r="R10">
-        <v>0.08855721393034825</v>
+        <v>0.09388097233864208</v>
       </c>
       <c r="S10">
-        <v>0.3442786069651741</v>
+        <v>0.3495389773679799</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08012820512820513</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="K11">
-        <v>0.1987179487179487</v>
+        <v>0.1861111111111111</v>
       </c>
       <c r="L11">
-        <v>0.5512820512820513</v>
+        <v>0.5722222222222222</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003205128205128205</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7640449438202247</v>
+        <v>0.7663551401869159</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1797752808988764</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="K12">
-        <v>0.02247191011235955</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="L12">
-        <v>0.02247191011235955</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01123595505617977</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G13">
-        <v>0.64</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.28</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06</v>
+        <v>0.05084745762711865</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05185185185185185</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1185185185185185</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="I15">
-        <v>0.05925925925925926</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="J15">
-        <v>0.3407407407407407</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="K15">
-        <v>0.08888888888888889</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01481481481481482</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05925925925925926</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2666666666666667</v>
+        <v>0.2469135802469136</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0136986301369863</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1575342465753425</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="I16">
-        <v>0.0958904109589041</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="J16">
-        <v>0.363013698630137</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="K16">
-        <v>0.1849315068493151</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04794520547945205</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03424657534246575</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1027397260273973</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01492537313432836</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.191044776119403</v>
+        <v>0.1928934010152284</v>
       </c>
       <c r="I17">
-        <v>0.09552238805970149</v>
+        <v>0.09390862944162437</v>
       </c>
       <c r="J17">
-        <v>0.4388059701492537</v>
+        <v>0.4365482233502538</v>
       </c>
       <c r="K17">
-        <v>0.1104477611940299</v>
+        <v>0.1192893401015228</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03283582089552239</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03880597014925373</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07761194029850746</v>
+        <v>0.07360406091370558</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1748633879781421</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I18">
-        <v>0.1366120218579235</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="J18">
-        <v>0.3825136612021858</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.1420765027322404</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01639344262295082</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N18">
-        <v>0.00546448087431694</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="O18">
-        <v>0.08196721311475409</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06010928961748634</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01626898047722343</v>
+        <v>0.0145322434150772</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2234273318872017</v>
+        <v>0.2297910990009083</v>
       </c>
       <c r="I19">
-        <v>0.08242950108459871</v>
+        <v>0.08537693006357856</v>
       </c>
       <c r="J19">
-        <v>0.3741865509761388</v>
+        <v>0.3742052679382379</v>
       </c>
       <c r="K19">
-        <v>0.1431670281995662</v>
+        <v>0.1389645776566757</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03036876355748373</v>
+        <v>0.02997275204359673</v>
       </c>
       <c r="N19">
-        <v>0.001084598698481562</v>
+        <v>0.0009082652134423251</v>
       </c>
       <c r="O19">
-        <v>0.04880694143167028</v>
+        <v>0.05177111716621254</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08026030368763558</v>
+        <v>0.07447774750227067</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tulane_B.xlsx
+++ b/team_specific_matrix/Tulane_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2071428571428572</v>
+        <v>0.2106918238993711</v>
       </c>
       <c r="C2">
-        <v>0.5428571428571428</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01428571428571429</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1464285714285714</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08928571428571429</v>
+        <v>0.07861635220125786</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03164556962025317</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="C3">
-        <v>0.0379746835443038</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0189873417721519</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7088607594936709</v>
+        <v>0.7206703910614525</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2025316455696203</v>
+        <v>0.1955307262569832</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02702702702702703</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5675675675675675</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4054054054054054</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03314917127071823</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005524861878453038</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02209944751381215</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2707182320441989</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01657458563535912</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1767955801104972</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.1215469613259668</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="S6">
-        <v>0.3535911602209945</v>
+        <v>0.3535353535353535</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1102362204724409</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007874015748031496</v>
+        <v>0.01079136690647482</v>
       </c>
       <c r="E7">
-        <v>0.003937007874015748</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="F7">
-        <v>0.04724409448818898</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1614173228346457</v>
+        <v>0.1618705035971223</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01968503937007874</v>
+        <v>0.01798561151079137</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1535433070866142</v>
+        <v>0.158273381294964</v>
       </c>
       <c r="R7">
-        <v>0.06299212598425197</v>
+        <v>0.06115107913669065</v>
       </c>
       <c r="S7">
-        <v>0.4330708661417323</v>
+        <v>0.4280575539568345</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0851581508515815</v>
+        <v>0.09368191721132897</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009732360097323601</v>
+        <v>0.01089324618736384</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0462287104622871</v>
+        <v>0.04357298474945534</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1192214111922141</v>
+        <v>0.1132897603485839</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0218978102189781</v>
+        <v>0.02396514161220044</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1508515815085158</v>
+        <v>0.159041394335512</v>
       </c>
       <c r="R8">
-        <v>0.1167883211678832</v>
+        <v>0.1154684095860566</v>
       </c>
       <c r="S8">
-        <v>0.4501216545012166</v>
+        <v>0.4400871459694989</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09944751381215469</v>
+        <v>0.09595959595959595</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01104972375690608</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E9">
-        <v>0.005524861878453038</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="F9">
-        <v>0.05524861878453038</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1160220994475138</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03867403314917127</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1491712707182321</v>
+        <v>0.1565656565656566</v>
       </c>
       <c r="R9">
-        <v>0.1160220994475138</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="S9">
-        <v>0.4088397790055249</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1081307627829002</v>
+        <v>0.1055389221556886</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02598491198658843</v>
+        <v>0.02694610778443114</v>
       </c>
       <c r="E10">
-        <v>0.0008382229673093043</v>
+        <v>0.0007485029940119761</v>
       </c>
       <c r="F10">
-        <v>0.06789606035205364</v>
+        <v>0.06811377245508982</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1458507963118189</v>
+        <v>0.1407185628742515</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01005867560771165</v>
+        <v>0.01122754491017964</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1978206202849958</v>
+        <v>0.1998502994011976</v>
       </c>
       <c r="R10">
-        <v>0.09388097233864208</v>
+        <v>0.09206586826347306</v>
       </c>
       <c r="S10">
-        <v>0.3495389773679799</v>
+        <v>0.3547904191616766</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1638888888888889</v>
+        <v>0.1642156862745098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07222222222222222</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K11">
-        <v>0.1861111111111111</v>
+        <v>0.1936274509803922</v>
       </c>
       <c r="L11">
-        <v>0.5722222222222222</v>
+        <v>0.5563725490196079</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005555555555555556</v>
+        <v>0.007352941176470588</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7663551401869159</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1775700934579439</v>
+        <v>0.1872340425531915</v>
       </c>
       <c r="K12">
-        <v>0.02336448598130841</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="L12">
-        <v>0.02336448598130841</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009345794392523364</v>
+        <v>0.008510638297872341</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01694915254237288</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G13">
-        <v>0.6610169491525424</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2711864406779661</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05084745762711865</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04938271604938271</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1419753086419753</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
-        <v>0.06172839506172839</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="J15">
-        <v>0.345679012345679</v>
+        <v>0.3351648351648351</v>
       </c>
       <c r="K15">
-        <v>0.09259259259259259</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04938271604938271</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2469135802469136</v>
+        <v>0.2582417582417583</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01176470588235294</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1647058823529412</v>
+        <v>0.1592039800995025</v>
       </c>
       <c r="I16">
-        <v>0.09411764705882353</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="J16">
-        <v>0.3647058823529412</v>
+        <v>0.3631840796019901</v>
       </c>
       <c r="K16">
-        <v>0.1764705882352941</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05294117647058823</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03529411764705882</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1</v>
+        <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01269035532994924</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1928934010152284</v>
+        <v>0.1915367483296214</v>
       </c>
       <c r="I17">
-        <v>0.09390862944162437</v>
+        <v>0.08908685968819599</v>
       </c>
       <c r="J17">
-        <v>0.4365482233502538</v>
+        <v>0.4498886414253898</v>
       </c>
       <c r="K17">
-        <v>0.1192893401015228</v>
+        <v>0.1158129175946548</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03045685279187817</v>
+        <v>0.0289532293986637</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04060913705583756</v>
+        <v>0.0400890868596882</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07360406091370558</v>
+        <v>0.07349665924276169</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1818181818181818</v>
+        <v>0.1791666666666667</v>
       </c>
       <c r="I18">
-        <v>0.1181818181818182</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K18">
-        <v>0.1272727272727273</v>
+        <v>0.125</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01818181818181818</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N18">
-        <v>0.004545454545454545</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="O18">
-        <v>0.08181818181818182</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0145322434150772</v>
+        <v>0.01305057096247961</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2297910990009083</v>
+        <v>0.2283849918433931</v>
       </c>
       <c r="I19">
-        <v>0.08537693006357856</v>
+        <v>0.08482871125611746</v>
       </c>
       <c r="J19">
-        <v>0.3742052679382379</v>
+        <v>0.3752039151712888</v>
       </c>
       <c r="K19">
-        <v>0.1389645776566757</v>
+        <v>0.1411092985318108</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02997275204359673</v>
+        <v>0.02773246329526917</v>
       </c>
       <c r="N19">
-        <v>0.0009082652134423251</v>
+        <v>0.001631321370309951</v>
       </c>
       <c r="O19">
-        <v>0.05177111716621254</v>
+        <v>0.05301794453507341</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07447774750227067</v>
+        <v>0.07504078303425775</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tulane_B.xlsx
+++ b/team_specific_matrix/Tulane_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2106918238993711</v>
+        <v>0.2172619047619048</v>
       </c>
       <c r="C2">
-        <v>0.5377358490566038</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01257861635220126</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.160377358490566</v>
+        <v>0.1577380952380952</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07861635220125786</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02793296089385475</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="C3">
-        <v>0.03910614525139665</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01675977653631285</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7206703910614525</v>
+        <v>0.7248677248677249</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1955307262569832</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5909090909090909</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3636363636363636</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04545454545454546</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005050505050505051</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02525252525252525</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2575757575757576</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01515151515151515</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1818181818181818</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="R6">
-        <v>0.1161616161616162</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="S6">
-        <v>0.3535353535353535</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1151079136690648</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01079136690647482</v>
+        <v>0.01013513513513514</v>
       </c>
       <c r="E7">
-        <v>0.003597122302158274</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="F7">
-        <v>0.04316546762589928</v>
+        <v>0.04391891891891892</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1618705035971223</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01798561151079137</v>
+        <v>0.01689189189189189</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.158273381294964</v>
+        <v>0.1587837837837838</v>
       </c>
       <c r="R7">
-        <v>0.06115107913669065</v>
+        <v>0.06418918918918919</v>
       </c>
       <c r="S7">
-        <v>0.4280575539568345</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09368191721132897</v>
+        <v>0.09552845528455285</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01089324618736384</v>
+        <v>0.01016260162601626</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04357298474945534</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1132897603485839</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02396514161220044</v>
+        <v>0.02235772357723577</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.159041394335512</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="R8">
-        <v>0.1154684095860566</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="S8">
-        <v>0.4400871459694989</v>
+        <v>0.443089430894309</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09595959595959595</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0101010101010101</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="E9">
-        <v>0.005050505050505051</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="F9">
-        <v>0.05555555555555555</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04040404040404041</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1565656565656566</v>
+        <v>0.1502347417840376</v>
       </c>
       <c r="R9">
-        <v>0.1161616161616162</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="S9">
-        <v>0.4090909090909091</v>
+        <v>0.4178403755868544</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1055389221556886</v>
+        <v>0.1042687193841847</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02694610778443114</v>
+        <v>0.02659202239328201</v>
       </c>
       <c r="E10">
-        <v>0.0007485029940119761</v>
+        <v>0.0006997900629811056</v>
       </c>
       <c r="F10">
-        <v>0.06811377245508982</v>
+        <v>0.06927921623512946</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1407185628742515</v>
+        <v>0.13925822253324</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01122754491017964</v>
+        <v>0.01049685094471658</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1998502994011976</v>
+        <v>0.2008397480755773</v>
       </c>
       <c r="R10">
-        <v>0.09206586826347306</v>
+        <v>0.09657102869139259</v>
       </c>
       <c r="S10">
-        <v>0.3547904191616766</v>
+        <v>0.3519944016794961</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1642156862745098</v>
+        <v>0.1605504587155963</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07843137254901961</v>
+        <v>0.08027522935779817</v>
       </c>
       <c r="K11">
-        <v>0.1936274509803922</v>
+        <v>0.1903669724770642</v>
       </c>
       <c r="L11">
-        <v>0.5563725490196079</v>
+        <v>0.5619266055045872</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007352941176470588</v>
+        <v>0.006880733944954129</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7574468085106383</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1872340425531915</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="K12">
-        <v>0.02553191489361702</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L12">
-        <v>0.02127659574468085</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008510638297872341</v>
+        <v>0.007936507936507936</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G13">
-        <v>0.6615384615384615</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2769230769230769</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04615384615384616</v>
+        <v>0.04411764705882353</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04945054945054945</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="I15">
-        <v>0.06043956043956044</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="J15">
-        <v>0.3351648351648351</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="K15">
-        <v>0.09340659340659341</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01098901098901099</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04945054945054945</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2582417582417583</v>
+        <v>0.2474226804123711</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009950248756218905</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1592039800995025</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="I16">
-        <v>0.0945273631840796</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="J16">
-        <v>0.3631840796019901</v>
+        <v>0.3568075117370892</v>
       </c>
       <c r="K16">
-        <v>0.1691542288557214</v>
+        <v>0.1784037558685446</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.06965174129353234</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02985074626865672</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1044776119402985</v>
+        <v>0.09859154929577464</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0111358574610245</v>
+        <v>0.0103950103950104</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1915367483296214</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I17">
-        <v>0.08908685968819599</v>
+        <v>0.08731808731808732</v>
       </c>
       <c r="J17">
-        <v>0.4498886414253898</v>
+        <v>0.4490644490644491</v>
       </c>
       <c r="K17">
-        <v>0.1158129175946548</v>
+        <v>0.1164241164241164</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0289532293986637</v>
+        <v>0.02910602910602911</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0400890868596882</v>
+        <v>0.04158004158004158</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07349665924276169</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1791666666666667</v>
+        <v>0.1762452107279693</v>
       </c>
       <c r="I18">
-        <v>0.1083333333333333</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J18">
-        <v>0.4166666666666667</v>
+        <v>0.4291187739463602</v>
       </c>
       <c r="K18">
-        <v>0.125</v>
+        <v>0.1187739463601533</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02083333333333333</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="N18">
-        <v>0.004166666666666667</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="O18">
-        <v>0.07916666666666666</v>
+        <v>0.07662835249042145</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06666666666666667</v>
+        <v>0.06513409961685823</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01305057096247961</v>
+        <v>0.01367781155015198</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2283849918433931</v>
+        <v>0.2264437689969605</v>
       </c>
       <c r="I19">
-        <v>0.08482871125611746</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="J19">
-        <v>0.3752039151712888</v>
+        <v>0.3753799392097265</v>
       </c>
       <c r="K19">
-        <v>0.1411092985318108</v>
+        <v>0.1413373860182371</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02773246329526917</v>
+        <v>0.02583586626139818</v>
       </c>
       <c r="N19">
-        <v>0.001631321370309951</v>
+        <v>0.001519756838905775</v>
       </c>
       <c r="O19">
-        <v>0.05301794453507341</v>
+        <v>0.05395136778115502</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07504078303425775</v>
+        <v>0.07674772036474165</v>
       </c>
     </row>
   </sheetData>
